--- a/Edukite/Sample Data.xlsx
+++ b/Edukite/Sample Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8190" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8190" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TimeslotFormat" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="231">
   <si>
     <t>10SN1</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Đảm</t>
-  </si>
-  <si>
-    <t>Công nghệ</t>
   </si>
   <si>
     <t>Hiếu</t>
@@ -1412,18 +1409,18 @@
         <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
-        <v>200</v>
-      </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1519,7 +1516,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1552,7 +1549,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1563,7 +1560,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1596,7 +1593,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1607,7 +1604,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1629,7 +1626,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1640,7 +1637,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1728,7 +1725,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1739,7 +1736,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1761,7 +1758,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -1794,7 +1791,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1860,7 +1857,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1871,7 +1868,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1904,7 +1901,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -1926,7 +1923,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1948,7 +1945,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50">
         <v>9</v>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1992,7 +1989,7 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2003,7 +2000,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -2025,7 +2022,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -2036,7 +2033,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2157,7 +2154,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -2201,7 +2198,7 @@
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2223,7 +2220,7 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -2256,7 +2253,7 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78">
         <v>10</v>
@@ -2278,7 +2275,7 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2289,7 +2286,7 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2311,7 +2308,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -2322,7 +2319,7 @@
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -2344,7 +2341,7 @@
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85">
         <v>8</v>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88">
         <v>8</v>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2410,7 +2407,7 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -2432,7 +2429,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="96" spans="2:4">
       <c r="B96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -2476,7 +2473,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="106" spans="2:4">
       <c r="B106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2586,7 +2583,7 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -2608,7 +2605,7 @@
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C110">
         <v>9</v>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C111">
         <v>6</v>
@@ -2641,7 +2638,7 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112">
         <v>7</v>
@@ -2652,7 +2649,7 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -2663,7 +2660,7 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C115">
         <v>6</v>
@@ -2685,7 +2682,7 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -2696,7 +2693,7 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117">
         <v>8</v>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121">
         <v>3</v>
@@ -2751,7 +2748,7 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123">
         <v>6</v>
@@ -2773,7 +2770,7 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -2784,7 +2781,7 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C125">
         <v>8</v>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126">
         <v>9</v>
@@ -2806,7 +2803,7 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -2817,7 +2814,7 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -2828,7 +2825,7 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129">
         <v>8</v>
@@ -2839,7 +2836,7 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C130">
         <v>9</v>
@@ -2850,7 +2847,7 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131">
         <v>10</v>
@@ -2949,7 +2946,7 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -2960,7 +2957,7 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C141">
         <v>7</v>
@@ -2971,7 +2968,7 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C142">
         <v>8</v>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C144">
         <v>10</v>
@@ -3004,7 +3001,7 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -3026,7 +3023,7 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -3048,7 +3045,7 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C149">
         <v>6</v>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C150">
         <v>7</v>
@@ -3070,7 +3067,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C151">
         <v>8</v>
@@ -3081,7 +3078,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C152">
         <v>9</v>
@@ -3092,7 +3089,7 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3103,7 +3100,7 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -3114,7 +3111,7 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -3136,7 +3133,7 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -3158,7 +3155,7 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3169,7 +3166,7 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C161">
         <v>4</v>
@@ -3191,7 +3188,7 @@
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -3202,7 +3199,7 @@
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -3213,7 +3210,7 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C164">
         <v>8</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -3235,7 +3232,7 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3246,7 +3243,7 @@
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3257,7 +3254,7 @@
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -3268,7 +3265,7 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C169">
         <v>4</v>
@@ -3279,7 +3276,7 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -3378,7 +3375,7 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C180">
         <v>2</v>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C181">
         <v>3</v>
@@ -3411,7 +3408,7 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -3422,7 +3419,7 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -3433,7 +3430,7 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -3444,7 +3441,7 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -3466,7 +3463,7 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C187">
         <v>4</v>
@@ -3477,7 +3474,7 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C188">
         <v>6</v>
@@ -3488,7 +3485,7 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C189">
         <v>7</v>
@@ -3499,7 +3496,7 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C190">
         <v>8</v>
@@ -3510,7 +3507,7 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -3529,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3543,13 +3540,13 @@
         <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
@@ -3631,7 +3628,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="B9" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="B16" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>93</v>
@@ -3741,7 +3738,7 @@
     </row>
     <row r="19" spans="2:4" ht="15.75">
       <c r="B19" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
@@ -3763,7 +3760,7 @@
     </row>
     <row r="21" spans="2:4" ht="15.75">
       <c r="B21" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
@@ -3928,7 +3925,7 @@
     </row>
     <row r="36" spans="2:4" ht="15.75">
       <c r="B36" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
         <v>119</v>
@@ -4118,7 +4115,7 @@
         <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -4126,10 +4123,10 @@
     </row>
     <row r="54" spans="2:4" ht="15.75">
       <c r="B54" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -4137,10 +4134,10 @@
     </row>
     <row r="55" spans="2:4" ht="15.75">
       <c r="B55" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55">
         <v>12</v>
@@ -4148,10 +4145,10 @@
     </row>
     <row r="56" spans="2:4" ht="15.75">
       <c r="B56" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56">
         <v>12</v>
@@ -4162,7 +4159,7 @@
         <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57">
         <v>12</v>
@@ -4173,7 +4170,7 @@
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58">
         <v>12</v>
@@ -4181,10 +4178,10 @@
     </row>
     <row r="59" spans="2:4" ht="15.75">
       <c r="B59" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59">
         <v>12</v>
@@ -4192,10 +4189,10 @@
     </row>
     <row r="60" spans="2:4" ht="15.75">
       <c r="B60" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60">
         <v>12</v>
@@ -4206,7 +4203,7 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -4217,7 +4214,7 @@
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62">
         <v>12</v>
@@ -4228,7 +4225,7 @@
         <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63">
         <v>12</v>
@@ -4239,7 +4236,7 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64">
         <v>12</v>
@@ -4250,7 +4247,7 @@
         <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65">
         <v>12</v>
@@ -4261,7 +4258,7 @@
         <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D66">
         <v>12</v>
@@ -4294,19 +4291,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4320,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" s="7">
         <v>38</v>
@@ -4340,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="7">
         <v>38</v>
@@ -4360,7 +4357,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="7">
         <v>38</v>
@@ -4380,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="7">
         <v>35</v>
@@ -4400,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="7">
         <v>34</v>
@@ -4420,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="7">
         <v>34</v>
@@ -4440,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="7">
         <v>34</v>
@@ -4460,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="7">
         <v>34</v>
@@ -4480,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="7">
         <v>36</v>
@@ -4500,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="7">
         <v>36</v>
@@ -4520,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="7">
         <v>35</v>
@@ -4540,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="7">
         <v>36</v>
@@ -4560,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="7">
         <v>33</v>
@@ -4580,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" s="7">
         <v>34</v>
@@ -4600,7 +4597,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="7">
         <v>34</v>
@@ -4620,7 +4617,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="7">
         <v>34</v>
@@ -4640,7 +4637,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="7">
         <v>34</v>
@@ -4660,7 +4657,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" s="7">
         <v>33</v>
@@ -4680,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="7">
         <v>33</v>
@@ -4700,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="7">
         <v>33</v>
@@ -4720,7 +4717,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="7">
         <v>34</v>
@@ -4740,7 +4737,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="7">
         <v>34</v>
@@ -4779,27 +4776,27 @@
         <v>61</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>209</v>
-      </c>
-      <c r="G1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="12">
         <v>5</v>
@@ -4818,12 +4815,12 @@
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -4842,12 +4839,12 @@
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -4866,12 +4863,12 @@
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4951,7 +4948,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -4971,7 +4968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -4983,15 +4980,15 @@
         <v>2</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -5001,15 +4998,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -5019,15 +5016,15 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -5063,7 +5060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5079,25 +5076,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -5107,65 +5104,65 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -5205,7 +5202,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -5247,18 +5244,18 @@
         <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -5313,7 +5310,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -5346,7 +5343,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
@@ -5368,7 +5365,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>93</v>
@@ -5632,7 +5629,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
         <v>106</v>
@@ -5654,10 +5651,10 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -5668,7 +5665,7 @@
         <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -5676,10 +5673,10 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -5687,10 +5684,10 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -5701,7 +5698,7 @@
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -5712,7 +5709,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -5723,7 +5720,7 @@
         <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -5734,7 +5731,7 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -5745,7 +5742,7 @@
         <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -5753,10 +5750,10 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -5764,10 +5761,10 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -5778,7 +5775,7 @@
         <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -5789,7 +5786,7 @@
         <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -5800,7 +5797,7 @@
         <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -5811,7 +5808,7 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -5822,7 +5819,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -5907,7 +5904,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
         <v>119</v>
@@ -6042,7 +6039,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -6050,10 +6047,10 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74">
         <v>10</v>
@@ -6061,10 +6058,10 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75">
         <v>10</v>
@@ -6075,7 +6072,7 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -6086,7 +6083,7 @@
         <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -6097,7 +6094,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D78">
         <v>10</v>
@@ -6105,10 +6102,10 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79">
         <v>10</v>
@@ -6116,10 +6113,10 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D80">
         <v>10</v>
@@ -6130,7 +6127,7 @@
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -6138,10 +6135,10 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82">
         <v>10</v>
@@ -6152,7 +6149,7 @@
         <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -6163,7 +6160,7 @@
         <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -6174,7 +6171,7 @@
         <v>127</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85">
         <v>10</v>
@@ -6182,10 +6179,10 @@
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86">
         <v>10</v>
@@ -6193,10 +6190,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87">
         <v>10</v>
@@ -6207,7 +6204,7 @@
         <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -6215,10 +6212,10 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D89">
         <v>10</v>
@@ -6229,7 +6226,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D90">
         <v>10</v>
@@ -6240,7 +6237,7 @@
         <v>122</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -6272,19 +6269,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6298,7 +6295,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="8">
         <v>38</v>
@@ -6318,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="8">
         <v>36</v>
@@ -6338,7 +6335,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="8">
         <v>36</v>
@@ -6358,7 +6355,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="8">
         <v>35</v>
@@ -6378,7 +6375,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="8">
         <v>35</v>
@@ -6398,7 +6395,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="8">
         <v>35</v>
@@ -6418,7 +6415,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="8">
         <v>35</v>
@@ -6438,7 +6435,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="8">
         <v>35</v>
@@ -6458,7 +6455,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="8">
         <v>35</v>
@@ -6478,7 +6475,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" s="8">
         <v>35</v>
@@ -6498,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="8">
         <v>35</v>
@@ -6518,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="8">
         <v>35</v>
@@ -6538,7 +6535,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="8">
         <v>35</v>
@@ -6558,7 +6555,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" s="8">
         <v>35</v>
@@ -6578,7 +6575,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="8">
         <v>35</v>
@@ -6598,7 +6595,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="8">
         <v>35</v>
@@ -6618,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="8">
         <v>35</v>
@@ -6638,7 +6635,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" s="8">
         <v>35</v>
@@ -6658,7 +6655,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="8">
         <v>35</v>
@@ -6678,7 +6675,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="8">
         <v>35</v>
@@ -6696,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6717,13 +6714,13 @@
         <v>61</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
@@ -6731,7 +6728,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="37">
         <v>6</v>
@@ -6742,7 +6739,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="37">
         <v>6</v>
@@ -6753,7 +6750,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="37">
         <v>7</v>
@@ -6764,7 +6761,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="37">
         <v>6</v>
@@ -6775,7 +6772,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="37">
         <v>6</v>
@@ -6786,7 +6783,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="37">
         <v>6</v>
@@ -6797,7 +6794,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="39">
         <v>6</v>
@@ -6808,7 +6805,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="39">
         <v>5</v>
@@ -6819,7 +6816,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="39">
         <v>5</v>
@@ -6830,7 +6827,7 @@
         <v>93</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="39">
         <v>5</v>
@@ -6841,7 +6838,7 @@
         <v>93</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="39">
         <v>6</v>
@@ -6852,7 +6849,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="39">
         <v>5</v>
@@ -6863,7 +6860,7 @@
         <v>106</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="39">
         <v>11</v>
@@ -6874,7 +6871,7 @@
         <v>106</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="39">
         <v>10</v>
@@ -6885,7 +6882,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="39">
         <v>7</v>
@@ -6896,7 +6893,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="39">
         <v>7</v>
@@ -6907,7 +6904,7 @@
         <v>106</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" s="39">
         <v>8</v>
@@ -6918,7 +6915,7 @@
         <v>106</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="39">
         <v>7</v>
@@ -6929,7 +6926,7 @@
         <v>113</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="41">
         <v>2</v>
@@ -6940,7 +6937,7 @@
         <v>113</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="41">
         <v>2</v>
@@ -6951,7 +6948,7 @@
         <v>113</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="39">
         <v>3</v>
@@ -6962,7 +6959,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="39">
         <v>3</v>
@@ -6973,7 +6970,7 @@
         <v>113</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="39">
         <v>2</v>
@@ -6984,7 +6981,7 @@
         <v>113</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" s="39">
         <v>2</v>
@@ -6995,7 +6992,7 @@
         <v>119</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" s="39">
         <v>2</v>
@@ -7006,7 +7003,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="39">
         <v>2</v>
@@ -7017,7 +7014,7 @@
         <v>119</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="39">
         <v>3</v>
@@ -7028,7 +7025,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="39">
         <v>3</v>
@@ -7039,7 +7036,7 @@
         <v>119</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="39">
         <v>2</v>
@@ -7050,7 +7047,7 @@
         <v>119</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="39">
         <v>2</v>
@@ -7061,7 +7058,7 @@
         <v>123</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" s="39">
         <v>2</v>
@@ -7072,7 +7069,7 @@
         <v>123</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="39">
         <v>2</v>
@@ -7083,7 +7080,7 @@
         <v>123</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="39">
         <v>2</v>
@@ -7094,7 +7091,7 @@
         <v>123</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="39">
         <v>2</v>
@@ -7105,7 +7102,7 @@
         <v>123</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="39">
         <v>2</v>
@@ -7116,7 +7113,7 @@
         <v>123</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="39">
         <v>2</v>
@@ -7124,10 +7121,10 @@
     </row>
     <row r="38" spans="2:4" ht="15.75">
       <c r="B38" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="37">
         <v>1</v>
@@ -7135,10 +7132,10 @@
     </row>
     <row r="39" spans="2:4" ht="15.75">
       <c r="B39" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="37">
         <v>1</v>
@@ -7146,10 +7143,10 @@
     </row>
     <row r="40" spans="2:4" ht="15.75">
       <c r="B40" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="37">
         <v>1</v>
@@ -7157,10 +7154,10 @@
     </row>
     <row r="41" spans="2:4" ht="15.75">
       <c r="B41" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="37">
         <v>1</v>
@@ -7168,10 +7165,10 @@
     </row>
     <row r="42" spans="2:4" ht="15.75">
       <c r="B42" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="37">
         <v>1</v>
@@ -7179,10 +7176,10 @@
     </row>
     <row r="43" spans="2:4" ht="15.75">
       <c r="B43" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="37">
         <v>1</v>
@@ -7193,7 +7190,7 @@
         <v>126</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="39">
         <v>1</v>
@@ -7204,7 +7201,7 @@
         <v>126</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="39">
         <v>1</v>
@@ -7215,7 +7212,7 @@
         <v>126</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="39">
         <v>1</v>
@@ -7226,7 +7223,7 @@
         <v>126</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
@@ -7237,7 +7234,7 @@
         <v>126</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="39">
         <v>1</v>
@@ -7248,7 +7245,7 @@
         <v>126</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49" s="39">
         <v>2</v>
@@ -7259,7 +7256,7 @@
         <v>129</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="39">
         <v>2</v>
@@ -7270,7 +7267,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="39">
         <v>2</v>
@@ -7281,7 +7278,7 @@
         <v>129</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="39">
         <v>1</v>
@@ -7292,7 +7289,7 @@
         <v>129</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="39">
         <v>1</v>
@@ -7303,7 +7300,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D54" s="39">
         <v>2</v>
@@ -7314,7 +7311,7 @@
         <v>129</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D55" s="39">
         <v>2</v>
@@ -7325,7 +7322,7 @@
         <v>131</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="39">
         <v>1</v>
@@ -7336,7 +7333,7 @@
         <v>131</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D57" s="39">
         <v>1</v>
@@ -7347,7 +7344,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D58" s="39">
         <v>1</v>
@@ -7358,7 +7355,7 @@
         <v>131</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="39">
         <v>1</v>
@@ -7369,7 +7366,7 @@
         <v>131</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D60" s="39">
         <v>1</v>
@@ -7380,7 +7377,7 @@
         <v>131</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61" s="39">
         <v>2</v>
@@ -7388,10 +7385,10 @@
     </row>
     <row r="62" spans="2:4" ht="15.75">
       <c r="B62" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" s="39">
         <v>1</v>
@@ -7399,10 +7396,10 @@
     </row>
     <row r="63" spans="2:4" ht="15.75">
       <c r="B63" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" s="39">
         <v>1</v>
@@ -7410,10 +7407,10 @@
     </row>
     <row r="64" spans="2:4" ht="15.75">
       <c r="B64" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="39">
         <v>2</v>
@@ -7421,10 +7418,10 @@
     </row>
     <row r="65" spans="2:4" ht="15.75">
       <c r="B65" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="39">
         <v>2</v>
@@ -7432,10 +7429,10 @@
     </row>
     <row r="66" spans="2:4" ht="15.75">
       <c r="B66" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" s="39">
         <v>1</v>
@@ -7443,10 +7440,10 @@
     </row>
     <row r="67" spans="2:4" ht="15.75">
       <c r="B67" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" s="39">
         <v>1</v>
@@ -7454,10 +7451,10 @@
     </row>
     <row r="68" spans="2:4" ht="15.75">
       <c r="B68" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="37">
         <v>2</v>
@@ -7465,10 +7462,10 @@
     </row>
     <row r="69" spans="2:4" ht="15.75">
       <c r="B69" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="37">
         <v>2</v>
@@ -7476,10 +7473,10 @@
     </row>
     <row r="70" spans="2:4" ht="15.75">
       <c r="B70" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="37">
         <v>2</v>
@@ -7487,10 +7484,10 @@
     </row>
     <row r="71" spans="2:4" ht="15.75">
       <c r="B71" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="37">
         <v>2</v>
@@ -7498,10 +7495,10 @@
     </row>
     <row r="72" spans="2:4" ht="15.75">
       <c r="B72" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="37">
         <v>2</v>
@@ -7509,10 +7506,10 @@
     </row>
     <row r="73" spans="2:4" ht="15.75">
       <c r="B73" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="37">
         <v>2</v>
@@ -7520,10 +7517,10 @@
     </row>
     <row r="74" spans="2:4" ht="15.75">
       <c r="B74" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="37">
         <v>1</v>
@@ -7531,10 +7528,10 @@
     </row>
     <row r="75" spans="2:4" ht="15.75">
       <c r="B75" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="37">
         <v>1</v>
@@ -7542,10 +7539,10 @@
     </row>
     <row r="76" spans="2:4" ht="15.75">
       <c r="B76" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="37">
         <v>1</v>
@@ -7553,10 +7550,10 @@
     </row>
     <row r="77" spans="2:4" ht="15.75">
       <c r="B77" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="37">
         <v>1</v>
@@ -7564,10 +7561,10 @@
     </row>
     <row r="78" spans="2:4" ht="15.75">
       <c r="B78" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="37">
         <v>1</v>
@@ -7575,10 +7572,10 @@
     </row>
     <row r="79" spans="2:4" ht="15.75">
       <c r="B79" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79" s="37">
         <v>1</v>
@@ -7593,7 +7590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7608,18 +7605,18 @@
         <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -7630,7 +7627,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -7663,7 +7660,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -7685,7 +7682,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -7696,7 +7693,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
@@ -7740,7 +7737,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
@@ -7784,7 +7781,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
@@ -7872,7 +7869,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
@@ -7894,7 +7891,7 @@
     </row>
     <row r="27" spans="2:4" ht="30">
       <c r="B27" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
@@ -7927,7 +7924,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
@@ -8004,7 +8001,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
         <v>113</v>
@@ -8081,7 +8078,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
         <v>119</v>
@@ -8103,7 +8100,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
         <v>123</v>
@@ -8293,7 +8290,7 @@
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63">
         <v>11</v>
@@ -8301,10 +8298,10 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64">
         <v>11</v>
@@ -8312,10 +8309,10 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65">
         <v>11</v>
@@ -8323,10 +8320,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -8337,7 +8334,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67">
         <v>11</v>
@@ -8348,7 +8345,7 @@
         <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>11</v>
@@ -8356,10 +8353,10 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69">
         <v>11</v>
@@ -8367,10 +8364,10 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
         <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
       </c>
       <c r="D70">
         <v>11</v>
@@ -8378,10 +8375,10 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71">
         <v>11</v>
@@ -8392,7 +8389,7 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72">
         <v>11</v>
@@ -8403,7 +8400,7 @@
         <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D73">
         <v>11</v>
@@ -8414,7 +8411,7 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74">
         <v>11</v>
@@ -8425,7 +8422,7 @@
         <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75">
         <v>11</v>
@@ -8436,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D76">
         <v>11</v>
@@ -8447,7 +8444,7 @@
         <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D77">
         <v>11</v>
@@ -8479,19 +8476,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8505,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="5">
         <v>38</v>
@@ -8525,7 +8522,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="5">
         <v>37</v>
@@ -8545,7 +8542,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="5">
         <v>36</v>
@@ -8565,7 +8562,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="5">
         <v>36</v>
@@ -8585,7 +8582,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="5">
         <v>31</v>
@@ -8602,7 +8599,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="5">
         <v>36</v>
@@ -8622,7 +8619,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="5">
         <v>36</v>
@@ -8642,7 +8639,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" s="5">
         <v>36</v>
@@ -8662,7 +8659,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="5">
         <v>36</v>
@@ -8682,7 +8679,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" s="5">
         <v>36</v>
@@ -8702,7 +8699,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="5">
         <v>36</v>
@@ -8722,7 +8719,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="5">
         <v>36</v>
@@ -8742,7 +8739,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="5">
         <v>36</v>
@@ -8762,7 +8759,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="5">
         <v>36</v>
@@ -8782,7 +8779,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="5">
         <v>36</v>
@@ -8802,7 +8799,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="5">
         <v>32</v>
@@ -8822,7 +8819,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="5">
         <v>32</v>
@@ -8842,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="5">
         <v>32</v>
@@ -8862,7 +8859,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="5">
         <v>32</v>
@@ -8880,8 +8877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8899,13 +8896,13 @@
         <v>61</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
@@ -8914,7 +8911,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="41">
         <v>6</v>
@@ -8926,7 +8923,7 @@
         <v>80</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="41">
         <v>6</v>
@@ -8938,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="41">
         <v>7</v>
@@ -8950,7 +8947,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="41">
         <v>6</v>
@@ -8962,7 +8959,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="41">
         <v>5</v>
@@ -8974,7 +8971,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="41">
         <v>6</v>
@@ -8986,7 +8983,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="41">
         <v>5</v>
@@ -8998,7 +8995,7 @@
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="41">
         <v>6</v>
@@ -9010,7 +9007,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="41">
         <v>6</v>
@@ -9022,7 +9019,7 @@
         <v>93</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="41">
         <v>6</v>
@@ -9034,7 +9031,7 @@
         <v>93</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="41">
         <v>5</v>
@@ -9046,7 +9043,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="41">
         <v>6</v>
@@ -9058,7 +9055,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="41">
         <v>5</v>
@@ -9070,7 +9067,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="41">
         <v>6</v>
@@ -9082,7 +9079,7 @@
         <v>93</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" s="41">
         <v>5</v>
@@ -9094,7 +9091,7 @@
         <v>93</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="41">
         <v>6</v>
@@ -9106,7 +9103,7 @@
         <v>106</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="41">
         <v>11</v>
@@ -9118,7 +9115,7 @@
         <v>106</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="41">
         <v>10</v>
@@ -9130,7 +9127,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="41">
         <v>7</v>
@@ -9142,7 +9139,7 @@
         <v>106</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="41">
         <v>7</v>
@@ -9154,7 +9151,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="41">
         <v>6</v>
@@ -9166,7 +9163,7 @@
         <v>106</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="41">
         <v>7</v>
@@ -9178,7 +9175,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="41">
         <v>6</v>
@@ -9190,7 +9187,7 @@
         <v>106</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="41">
         <v>8</v>
@@ -9202,7 +9199,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" s="41">
         <v>2</v>
@@ -9214,7 +9211,7 @@
         <v>113</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="41">
         <v>2</v>
@@ -9226,7 +9223,7 @@
         <v>113</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="41">
         <v>3</v>
@@ -9238,7 +9235,7 @@
         <v>113</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="41">
         <v>3</v>
@@ -9250,7 +9247,7 @@
         <v>113</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="41">
         <v>2</v>
@@ -9262,7 +9259,7 @@
         <v>113</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="41">
         <v>2</v>
@@ -9274,7 +9271,7 @@
         <v>113</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D32" s="41">
         <v>2</v>
@@ -9286,7 +9283,7 @@
         <v>113</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="41">
         <v>2</v>
@@ -9298,7 +9295,7 @@
         <v>119</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="41">
         <v>2</v>
@@ -9310,7 +9307,7 @@
         <v>119</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="41">
         <v>2</v>
@@ -9322,7 +9319,7 @@
         <v>119</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="41">
         <v>3</v>
@@ -9334,7 +9331,7 @@
         <v>119</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="41">
         <v>3</v>
@@ -9346,7 +9343,7 @@
         <v>119</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="41">
         <v>2</v>
@@ -9358,7 +9355,7 @@
         <v>119</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="41">
         <v>2</v>
@@ -9370,7 +9367,7 @@
         <v>119</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="41">
         <v>2</v>
@@ -9382,7 +9379,7 @@
         <v>119</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="41">
         <v>2</v>
@@ -9394,7 +9391,7 @@
         <v>123</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="41">
         <v>2</v>
@@ -9406,7 +9403,7 @@
         <v>123</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="41">
         <v>2</v>
@@ -9418,7 +9415,7 @@
         <v>123</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="41">
         <v>2</v>
@@ -9430,7 +9427,7 @@
         <v>123</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D45" s="41">
         <v>2</v>
@@ -9442,7 +9439,7 @@
         <v>123</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D46" s="41">
         <v>2</v>
@@ -9454,7 +9451,7 @@
         <v>123</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="41">
         <v>2</v>
@@ -9466,7 +9463,7 @@
         <v>123</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D48" s="41">
         <v>2</v>
@@ -9478,7 +9475,7 @@
         <v>123</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="41">
         <v>2</v>
@@ -9487,10 +9484,10 @@
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="42"/>
       <c r="B50" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="41">
         <v>1</v>
@@ -9499,10 +9496,10 @@
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="42"/>
       <c r="B51" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="41">
         <v>1</v>
@@ -9511,10 +9508,10 @@
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="42"/>
       <c r="B52" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="41">
         <v>1</v>
@@ -9523,10 +9520,10 @@
     <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="42"/>
       <c r="B53" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="41">
         <v>1</v>
@@ -9535,10 +9532,10 @@
     <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="42"/>
       <c r="B54" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="41">
         <v>1</v>
@@ -9547,10 +9544,10 @@
     <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="42"/>
       <c r="B55" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="41">
         <v>1</v>
@@ -9559,10 +9556,10 @@
     <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="42"/>
       <c r="B56" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="41">
         <v>1</v>
@@ -9571,10 +9568,10 @@
     <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="42"/>
       <c r="B57" s="42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="41">
         <v>1</v>
@@ -9586,7 +9583,7 @@
         <v>126</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="41">
         <v>1</v>
@@ -9598,7 +9595,7 @@
         <v>126</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="41">
         <v>1</v>
@@ -9610,7 +9607,7 @@
         <v>126</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D60" s="41">
         <v>1</v>
@@ -9622,7 +9619,7 @@
         <v>126</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="41">
         <v>1</v>
@@ -9634,7 +9631,7 @@
         <v>126</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="41">
         <v>1</v>
@@ -9646,7 +9643,7 @@
         <v>126</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="41">
         <v>2</v>
@@ -9658,7 +9655,7 @@
         <v>126</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="41">
         <v>2</v>
@@ -9670,7 +9667,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D65" s="41">
         <v>2</v>
@@ -9682,7 +9679,7 @@
         <v>129</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D66" s="41">
         <v>2</v>
@@ -9694,7 +9691,7 @@
         <v>129</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="41">
         <v>2</v>
@@ -9706,7 +9703,7 @@
         <v>129</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="41">
         <v>2</v>
@@ -9718,7 +9715,7 @@
         <v>129</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="41">
         <v>2</v>
@@ -9730,7 +9727,7 @@
         <v>129</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="41">
         <v>2</v>
@@ -9742,7 +9739,7 @@
         <v>129</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="41">
         <v>2</v>
@@ -9754,7 +9751,7 @@
         <v>129</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="41">
         <v>2</v>
@@ -9766,7 +9763,7 @@
         <v>129</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="41">
         <v>2</v>
@@ -9778,7 +9775,7 @@
         <v>131</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="41">
         <v>1</v>
@@ -9790,7 +9787,7 @@
         <v>131</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="41">
         <v>1</v>
@@ -9802,7 +9799,7 @@
         <v>131</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="41">
         <v>1</v>
@@ -9814,7 +9811,7 @@
         <v>131</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D77" s="41">
         <v>1</v>
@@ -9826,7 +9823,7 @@
         <v>131</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" s="41">
         <v>1</v>
@@ -9838,7 +9835,7 @@
         <v>131</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" s="41">
         <v>2</v>
@@ -9850,7 +9847,7 @@
         <v>131</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="41">
         <v>1</v>
@@ -9862,7 +9859,7 @@
         <v>131</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="41">
         <v>1</v>
@@ -9871,10 +9868,10 @@
     <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="42"/>
       <c r="B82" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D82" s="41">
         <v>1</v>
@@ -9883,10 +9880,10 @@
     <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="42"/>
       <c r="B83" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D83" s="41">
         <v>1</v>
@@ -9895,10 +9892,10 @@
     <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="42"/>
       <c r="B84" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84" s="41">
         <v>1</v>
@@ -9907,10 +9904,10 @@
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="42"/>
       <c r="B85" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D85" s="41">
         <v>1</v>
@@ -9919,10 +9916,10 @@
     <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="42"/>
       <c r="B86" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D86" s="41">
         <v>1</v>
@@ -9931,10 +9928,10 @@
     <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="42"/>
       <c r="B87" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D87" s="41">
         <v>1</v>
@@ -9943,10 +9940,10 @@
     <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="42"/>
       <c r="B88" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88" s="41">
         <v>1</v>
@@ -9955,10 +9952,10 @@
     <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="42"/>
       <c r="B89" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="41">
         <v>1</v>
@@ -9967,10 +9964,10 @@
     <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="42"/>
       <c r="B90" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="41">
         <v>2</v>
@@ -9979,10 +9976,10 @@
     <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="42"/>
       <c r="B91" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="41">
         <v>2</v>
@@ -9991,10 +9988,10 @@
     <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="42"/>
       <c r="B92" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D92" s="41">
         <v>2</v>
@@ -10003,10 +10000,10 @@
     <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="42"/>
       <c r="B93" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D93" s="41">
         <v>2</v>
@@ -10015,10 +10012,10 @@
     <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="42"/>
       <c r="B94" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D94" s="41">
         <v>2</v>
@@ -10027,10 +10024,10 @@
     <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="42"/>
       <c r="B95" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D95" s="41">
         <v>2</v>
@@ -10039,10 +10036,10 @@
     <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="42"/>
       <c r="B96" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D96" s="41">
         <v>2</v>
@@ -10051,10 +10048,10 @@
     <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="42"/>
       <c r="B97" s="42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D97" s="41">
         <v>2</v>
@@ -10063,10 +10060,10 @@
     <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="42"/>
       <c r="B98" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98" s="44">
         <v>1</v>
@@ -10075,10 +10072,10 @@
     <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="42"/>
       <c r="B99" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="44">
         <v>1</v>
@@ -10087,10 +10084,10 @@
     <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="42"/>
       <c r="B100" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" s="44">
         <v>1</v>
@@ -10099,10 +10096,10 @@
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="42"/>
       <c r="B101" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D101" s="44">
         <v>1</v>
@@ -10111,10 +10108,10 @@
     <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="42"/>
       <c r="B102" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D102" s="44">
         <v>1</v>
@@ -10123,10 +10120,10 @@
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="42"/>
       <c r="B103" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D103" s="44">
         <v>1</v>
@@ -10135,10 +10132,10 @@
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="42"/>
       <c r="B104" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D104" s="44">
         <v>1</v>
@@ -10147,10 +10144,10 @@
     <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="42"/>
       <c r="B105" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D105" s="44">
         <v>1</v>
